--- a/metadata_files/06_metadata_phenology/02_metadata_monthly_datatypes/White-capped Albatross_Auckland Islands.xlsx
+++ b/metadata_files/06_metadata_phenology/02_metadata_monthly_datatypes/White-capped Albatross_Auckland Islands.xlsx
@@ -4305,13 +4305,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7731847F-C410-496A-85A2-055B95859B67}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CCD7674-5F12-4B53-88E2-01DFB04103CF}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ABC48697-17A4-4959-8B57-C6D7685C6AE6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{357A9DAE-53F3-415E-A46B-584CABA9A555}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{056CA3D8-6DF7-48FD-8FB9-908C645E6835}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A8B7329-686F-45FC-98A3-ECFFFCE2D0EA}"/>
 </file>